--- a/biology/Zoologie/Caligo/Caligo.xlsx
+++ b/biology/Zoologie/Caligo/Caligo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caligo est un genre de lépidoptères de la famille des nymphalidés (Nymphalidae) et de la sous-famille des morphinés (Morphinae). Les papillons du genre Caligo sont communément appelés « papillons-hiboux » d'après les grands ocelles présents au revers de leurs ailes postérieures, qui rappellent les yeux d'un hibou.
 L'aire de répartition de ces papillons se trouve sur le continent américain, principalement dans les forêts tropicales et les forêts secondaires du Mexique, de l'Amérique centrale et de l'Amérique du Sud.
@@ -512,14 +524,12 @@
           <t>Historique et  dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre   Caligo  a été décrit  par Jakob Hübner en 1819[1].
-L’espèce type est   Caligo eurilochus  (Cramer, 1775)
-Synonymie
-Aerodes (Billberg, 1820)[2]
-Hamadryas (Mikan, 1821) (attention il existe bien un genre Hamadryas (Hubner 1819)
-Pavonia (Godart, 1824)  [3]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre   Caligo  a été décrit  par Jakob Hübner en 1819.
+L’espèce type est   Caligo eurilochus  (Cramer, 1775)</t>
         </is>
       </c>
     </row>
@@ -544,15 +554,55 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique et  dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aerodes (Billberg, 1820)
+Hamadryas (Mikan, 1821) (attention il existe bien un genre Hamadryas (Hubner 1819)
+Pavonia (Godart, 1824)  </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Caligo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caligo</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il existe plus de 20 espèces pour ce genre, divisé en 6 groupes.
 Groupe du C. arisbe
-Caligo arisbe Hübner, [1822]; présent au Brésil.
-Caligo martia (Godart, [1824]); présent au Brésil.
+Caligo arisbe Hübner, ; présent au Brésil.
+Caligo martia (Godart, ); présent au Brésil.
 Caligo oberthurii (Deyrolle, 1872); présent en Colombie et au Pérou.
 			Caligo martia - MHNT
 Groupe du C. atreus
@@ -563,9 +613,9 @@
 Groupe du C. eurilochus
 Caligo bellerophon (Stichel, 1903)
 Caligo brasiliensis (C. Felder, 1862)
-Caligo eurilochus (Cramer, [1775])
+Caligo eurilochus (Cramer, )
 Caligo idomeneus (Linnaeus, 1758)
-Caligo illioneus  (Cramer, [1775])
+Caligo illioneus  (Cramer, )
 Caligo prometheus (Kollar, 1850)
 Caligo suzanna  (Deyrolle, 1872); en Colombie.
 Caligo telamonius (C. &amp; R. Felder, 1862) (C. &amp; R. Felder, 1862)
@@ -585,33 +635,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Caligo</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Caligo</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les larves se nourrissent sur Heliconia sp. et Musa sp.[4]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les larves se nourrissent sur Heliconia sp. et Musa sp.
 </t>
         </is>
       </c>
